--- a/Reschedule_Requests.xlsx
+++ b/Reschedule_Requests.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,20 +516,189 @@
           <t>2025-06-24 21:46:15</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>Tomorrow</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>Pending Callback</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aarav Mehta</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>917823844614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>24 MG Road, Bengaluru</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-06-25 19:11:27</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Pending Callback</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aarav Mehta</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>917823844614</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>24 MG Road, Bengaluru</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-06-25 19:35:25</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Pending Callback</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aarav Mehta</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>917823844614</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>24 MG Road, Bengaluru</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-06-25 19:39:22</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Pending Callback</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Vanshika panjwani</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>917823844614</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>24 MG Road, Bengaluru</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-06-25 20:34:22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Pending Callback</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
